--- a/July.xlsx
+++ b/July.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Supty</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Joy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>sobji</t>
+  </si>
+  <si>
+    <t>Chal</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Joy - Product</t>
+  </si>
+  <si>
+    <t>Supty- Product</t>
+  </si>
+  <si>
+    <t>Rana-Product</t>
   </si>
 </sst>
 </file>
@@ -364,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,25 +387,41 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>sobji</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Rana-Product</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +427,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>sobji</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>total bazer</t>
+  </si>
+  <si>
+    <t>Supty</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -376,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +408,7 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -412,8 +427,20 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -426,13 +453,35 @@
       <c r="E2">
         <v>70</v>
       </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>110</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>214</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1286</v>
       </c>
     </row>
   </sheetData>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>sobji</t>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +474,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>

--- a/July.xlsx
+++ b/July.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>sobji</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Adda</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +417,7 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -440,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -466,30 +475,55 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>SUM(L6:L20)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>L2-L3</f>
+        <v>159</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1286</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>sobji</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Left</t>
+  </si>
+  <si>
+    <t>murgi</t>
+  </si>
+  <si>
+    <t>morich</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +468,12 @@
       <c r="E2">
         <v>70</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
       <c r="I2">
         <v>1000</v>
       </c>
@@ -482,6 +494,12 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
       <c r="L3">
         <f>SUM(L6:L20)</f>
         <v>55</v>
@@ -505,6 +523,12 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>sobji</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>morich</t>
+  </si>
+  <si>
+    <t>shak</t>
+  </si>
+  <si>
+    <t>Use</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +508,10 @@
       </c>
       <c r="L3">
         <f>SUM(L6:L20)</f>
-        <v>55</v>
+        <v>175</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -514,7 +523,7 @@
       </c>
       <c r="L4">
         <f>L2-L3</f>
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -548,6 +557,22 @@
       </c>
       <c r="M7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>sobji</t>
   </si>
@@ -415,7 +415,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +544,12 @@
       <c r="C6">
         <v>1286</v>
       </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
       <c r="L6">
         <v>35</v>
       </c>
@@ -552,6 +558,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
       <c r="L7">
         <v>20</v>
       </c>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>sobji</t>
   </si>
@@ -71,6 +71,36 @@
   </si>
   <si>
     <t>Use</t>
+  </si>
+  <si>
+    <t>mukhe</t>
+  </si>
+  <si>
+    <t>lebu</t>
+  </si>
+  <si>
+    <t>lau kumara</t>
+  </si>
+  <si>
+    <t>lau kakrol</t>
+  </si>
+  <si>
+    <t>jinga</t>
+  </si>
+  <si>
+    <t>sosa</t>
+  </si>
+  <si>
+    <t>mula</t>
+  </si>
+  <si>
+    <t>sutki</t>
+  </si>
+  <si>
+    <t>peaj+ alu+ rosun</t>
+  </si>
+  <si>
+    <t>riksha</t>
   </si>
 </sst>
 </file>
@@ -412,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +536,9 @@
       <c r="G3">
         <v>35</v>
       </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
       <c r="L3">
         <f>SUM(L6:L20)</f>
         <v>175</v>
@@ -572,6 +605,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
       <c r="L8">
         <v>80</v>
       </c>
@@ -580,11 +619,89 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
       <c r="L9">
         <v>40</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>sobji</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>riksha</t>
+  </si>
+  <si>
+    <t>lobon+oil</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +557,12 @@
       <c r="E4">
         <v>50</v>
       </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
       <c r="L4">
         <f>L2-L3</f>
         <v>39</v>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>sobji</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>lobon+oil</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +584,12 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6">

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>sobji</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>mas</t>
+  </si>
+  <si>
+    <t>Shak+lau+morich</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +725,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/July.xlsx
+++ b/July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>sobji</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Shak+lau+morich</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>perperson</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>supty</t>
+  </si>
+  <si>
+    <t>rana</t>
+  </si>
+  <si>
+    <t>Due</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +551,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -550,7 +574,7 @@
       </c>
       <c r="L3">
         <f>SUM(L6:L20)</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -571,7 +595,7 @@
       </c>
       <c r="L4">
         <f>L2-L3</f>
-        <v>39</v>
+        <v>-136</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -618,6 +642,13 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>352</v>
+      </c>
       <c r="L7">
         <v>20</v>
       </c>
@@ -660,6 +691,10 @@
       <c r="E10">
         <v>40</v>
       </c>
+      <c r="L10">
+        <f>SUM(L6:L9)</f>
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -668,6 +703,9 @@
       <c r="E11">
         <v>60</v>
       </c>
+      <c r="J11">
+        <v>1286</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -676,6 +714,9 @@
       <c r="E12">
         <v>30</v>
       </c>
+      <c r="J12">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -684,6 +725,9 @@
       <c r="E13">
         <v>15</v>
       </c>
+      <c r="J13">
+        <v>775</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -692,6 +736,9 @@
       <c r="E14">
         <v>15</v>
       </c>
+      <c r="J14">
+        <v>352</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -700,6 +747,15 @@
       <c r="E15">
         <v>50</v>
       </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -708,29 +764,141 @@
       <c r="E16">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>775</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J11:J15)</f>
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G15:G16)</f>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <f>J16/3</f>
+        <v>905.66666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>31</v>
       </c>
       <c r="E19">
         <v>50</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E2:E19)</f>
+        <v>775</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>1090</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>300</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>885</v>
+      </c>
+      <c r="L21">
+        <f xml:space="preserve"> J18-J21</f>
+        <v>20.666666666666629</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>1090</v>
+      </c>
+      <c r="L22">
+        <f>J18-J22</f>
+        <v>-184.33333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>352</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>1152</v>
+      </c>
+      <c r="L23">
+        <f>J18-J23</f>
+        <v>-246.33333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G21:G23)</f>
+        <v>1152</v>
+      </c>
+      <c r="J24">
+        <f>SUM(J21:J23)</f>
+        <v>3127</v>
       </c>
     </row>
   </sheetData>
